--- a/数据整理/stocks/A股/深证主板/000923-河钢资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000923-河钢资源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>70.37</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.74</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3661</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>710301</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富安达增强收益债券A</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.36</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>710302</t>
+          <t>690003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富安达增强收益债券C</t>
+          <t>民生加银精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.36</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.11</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>6.25</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006256</t>
+          <t>710301</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮中证价值回报量化策略指数C</t>
+          <t>富安达增强收益债券A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>690003</t>
+          <t>710302</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>民生加银精选混合</t>
+          <t>富安达增强收益债券C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>006256</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>中邮中证价值回报量化策略指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>000390</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>华商优势行业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>23.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5996</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000390</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商优势行业混合</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2951</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>257010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合</t>
+          <t>国联安小盘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>257010</t>
+          <t>001959</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国联安小盘精选混合</t>
+          <t>华商乐享互联灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>74.19</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>10</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006255</t>
+          <t>000433</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮中证价值回报量化策略指数A</t>
+          <t>安信鑫发优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006256</t>
+          <t>001305</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中邮中证价值回报量化策略指数C</t>
+          <t>九泰天富改革新动力混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001305</t>
+          <t>007831</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合A</t>
+          <t>博道伍佰智航股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009912</t>
+          <t>006255</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合C</t>
+          <t>中邮中证价值回报量化策略指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001959</t>
+          <t>007832</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华商乐享互联灵活配置混合</t>
+          <t>博道伍佰智航股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -996,15 +1176,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>20.28</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1.58</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1024,15 +1214,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>20.28</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1.58</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007831</t>
+          <t>006256</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票A</t>
+          <t>中邮中证价值回报量化策略指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1070,26 +1280,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007832</t>
+          <t>009912</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>91.63</t>
-        </is>
-      </c>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000923-河钢资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000923-河钢资源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1288,7 +1289,6 @@
           <t>九泰天富改革新动力混合C</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>91.56</t>
@@ -1304,6 +1304,74 @@
       </c>
       <c r="H14" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000923-河钢资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000923-河钢资源.xlsx
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000923-河钢资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000923-河钢资源.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1317,7 +1318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1328,17 +1329,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1348,14 +1369,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.57</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -1364,13 +1459,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000923-河钢资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000923-河钢资源.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,323 +453,179 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>70.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3661</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0813</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>690003</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>民生加银精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0602</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006255</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中邮中证价值回报量化策略指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0338</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>710301</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.36</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>710302</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20.36</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006256</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中邮中证价值回报量化策略指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1312,180 +1168,324 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519007</t>
+          <t>257010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海富通强化回报混合</t>
+          <t>国联安小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.33</t>
+          <t>70.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0136</t>
+          <t>0.3661</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006255</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006256</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000923-河钢资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000923-河钢资源.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.57</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
@@ -532,6 +549,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -625,7 +774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1168,7 +1317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
